--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_791.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_791.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32416-d84711-Reviews-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>142</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Travelodge-By-Wyndham-Fullerton-Near-Anaheim.h580407.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_791.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_791.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="432">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1170 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r570301597-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>32416</t>
+  </si>
+  <si>
+    <t>84711</t>
+  </si>
+  <si>
+    <t>570301597</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Charged $40 deposit, I cleaned  bathroom b4using, non...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charged $40 deposit, I cleaned  bathroom b4using, non working WiFi, a bloodstained carpet, coffee and pastry is not breakfast discount for inconvenience was the same price for 2nd day... </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r567952036-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>567952036</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>No parking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When we arrived back at the hotel after spending the evening at the park, there was no parking. The closest street parking was in a nearby residential neighborhood. When we attempted to tell the staff, the office was locked with no one in sight. At least the room was clean because everything else made us uncomfortable </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r567913304-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>567913304</t>
+  </si>
+  <si>
+    <t>Horrendous stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First off, Wyndham made mistake on our initial reservation so we had to make a last minute change. This non-smoking stank of smoke, even causing our clothes to smell. The tub was dirty and the bottom of the tub felt like it would collapse. The shower curtain was dirty and frayed. We saw a cickroach in the bathroom light/fan. Our second day, we came back and we had no towels. The breakfast was essentially non-existent. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r559679149-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>559679149</t>
+  </si>
+  <si>
+    <t>02/10/2018</t>
+  </si>
+  <si>
+    <t>Great Extended Stay!!!</t>
+  </si>
+  <si>
+    <t>Very nice spacious room with great ammenities like free wifi and coffee in room, mini fridge and microwave, cable TV. Friendly staff on site able to fix any issue you may experience.Budget friendly!!</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r557382363-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>557382363</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>Worst staying ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good localization but terrible employees. They charged me 20 dollars for a employee mistake. and they did't take it back. There was no parking place for the guests, our room key was desconfigurated... etc </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r556907163-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>556907163</t>
+  </si>
+  <si>
+    <t>01/28/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r540952421-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>540952421</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r540338826-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>540338826</t>
+  </si>
+  <si>
+    <t>11/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disappointed. Would only recommend if its last resort.  </t>
+  </si>
+  <si>
+    <t>I have stayed at my Wyndham Hotel Group for the past 11 years and Travelodge Fullerton was disappointing. Only upside is that it is 10 minutes away from Disneyland and near freeway entrance. Staff was friendly.We stayed in Room 121Disappointed by:Reusing of key sleeve. I understand we are trying to be “eco friendly” and recycle things but come on! When a key sleeve is practically dirty and brown don’t give to new customer. (Photo Attached)Beds Sheets are old, with holes, looks like cigarette burns. (Photo attached) Needs major renovation. Pillows  should no longer be called a pillow as it was flat as a blanket when you laid your head on it. Tv / Light Location: There is a light fixture right next to the television screen not sure why its there. But its blinding when you are trying to watch television. (Photo Attached)Very old structure. Walls are very thin. Could here anyone who would walk by the room or any cars that were passing by.  Cabinet had no handle could not open to use to store things. AC unit is probably from the 70s it didn’t get cold and was super loud.Very disappointed.  MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I have stayed at my Wyndham Hotel Group for the past 11 years and Travelodge Fullerton was disappointing. Only upside is that it is 10 minutes away from Disneyland and near freeway entrance. Staff was friendly.We stayed in Room 121Disappointed by:Reusing of key sleeve. I understand we are trying to be “eco friendly” and recycle things but come on! When a key sleeve is practically dirty and brown don’t give to new customer. (Photo Attached)Beds Sheets are old, with holes, looks like cigarette burns. (Photo attached) Needs major renovation. Pillows  should no longer be called a pillow as it was flat as a blanket when you laid your head on it. Tv / Light Location: There is a light fixture right next to the television screen not sure why its there. But its blinding when you are trying to watch television. (Photo Attached)Very old structure. Walls are very thin. Could here anyone who would walk by the room or any cars that were passing by.  Cabinet had no handle could not open to use to store things. AC unit is probably from the 70s it didn’t get cold and was super loud.Very disappointed.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r537266111-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>537266111</t>
+  </si>
+  <si>
+    <t>10/30/2017</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>We selected the Wyndham Travelodge in Fullerton as it was close to our destination. The staff was very helpful and friendly. The pricing was average for a one night stay. The room was comfortable. We were surprised when they had pastries and coffee in the morning while we were checking out. We would stay here again.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r527345674-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>527345674</t>
+  </si>
+  <si>
+    <t>09/25/2017</t>
+  </si>
+  <si>
+    <t>Bathroom was so tiny that the door almost hit the toilet...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bathroom was so tiny that the door almost hit the toilet. The shower was very scetchy and would move when you would move in it. The tub felt like it could buckle at any time. </t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r521438302-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>521438302</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r516809050-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>516809050</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t>Worst night every people next to was so loud all. Igor so I...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worst night every people next to was so loud all. Igor so I had to leave the hotel and find another I had to be at work at 6:00 </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r506229249-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>506229249</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r503907265-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>503907265</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Couldn't sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was a hot day and night.  I was only there at night.  But couldn't sleep, due to a very hot night and bad air conditioning in my room.  I don't think they all had bad air conditioning,   but mine did.  It was a hot, sticky, miserable night. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r503696301-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>503696301</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r498313931-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>498313931</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r497198240-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>497198240</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>It's OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel room was clean. Handles on the furniture were falling off. On one day we were missing coffee, bath mat, 1 towel. Had to go the next morning to get all the items. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r494412208-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>494412208</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Awful</t>
+  </si>
+  <si>
+    <t>The room wasn't ready. There was nowhere to wait until it was.  The air conditioner was broken.  The window lock was broken.   Did not feel safe. I left and stayed elsewhere.  Old and dirty.  Not worth the money.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r482498044-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>482498044</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Good hotel - worth the price</t>
+  </si>
+  <si>
+    <t>Hotel was easy to find - they have plenty of free parking - breakfast was OK, consisting of pastries, juice and coffee. Plumbing worked fine. Relatively clean.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r477480399-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>477480399</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>Clean, quiet easy quick commute to Disneyland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good location and good rates. Upgraded rooms, great staff. This has become my first choice when visiting DCA (which is several times annually since I have a annual pass). </t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r472779981-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>472779981</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r466618651-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>466618651</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r466309431-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>466309431</t>
+  </si>
+  <si>
+    <t>03/11/2017</t>
+  </si>
+  <si>
+    <t>Very Quite Place</t>
+  </si>
+  <si>
+    <t>A very clean and quite place to stay. Located in a great area that is close to Disneyland and Knott's Berry Farm. I will stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r460131641-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>460131641</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>One Night stop before Disneyland Trip</t>
+  </si>
+  <si>
+    <t>Nice clean room, reasonable accommodations and very close to our desired attraction. Decent amount of restaurants and fast food places around, as well as shopping destinations in case you forgot something</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r449724336-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>449724336</t>
+  </si>
+  <si>
+    <t>01/05/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r447208784-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>447208784</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r438862515-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>438862515</t>
+  </si>
+  <si>
+    <t>11/20/2016</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r434293201-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>434293201</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r431543523-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>431543523</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r429899225-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>429899225</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>Was good for a one night visit</t>
+  </si>
+  <si>
+    <t>The room was very clean could feel people walking around below and outside on the walk way, but I will stay there again when I have a business meeting in Fullerton It is a older Motel so you have to take that in consideration it was nice.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r416659655-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>416659655</t>
+  </si>
+  <si>
+    <t>09/09/2016</t>
+  </si>
+  <si>
+    <t>Belinda from Galt,Ca</t>
+  </si>
+  <si>
+    <t>The front desk lady on the night shift was extremely nice. And she was still there in the morning when we were getting our coffee. And she was still very nice and in a great mood. Great coffee also.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r414342951-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>414342951</t>
+  </si>
+  <si>
+    <t>09/03/2016</t>
+  </si>
+  <si>
+    <t>Not Happy</t>
+  </si>
+  <si>
+    <t>Never have we stayed at a hotel that charges for an early check-in, requires a deposit in addition to the room charge &amp; only allows one car per room. We had a really hard time understanding the front desk clerk and felt very uncomfortable with how everything was handled.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r392875291-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>392875291</t>
+  </si>
+  <si>
+    <t>07/15/2016</t>
+  </si>
+  <si>
+    <t>Kind and Helpful</t>
+  </si>
+  <si>
+    <t>The owners were so helpful when I had a problem at check-in, and the Svenhard breakfast danishes they serve (whicn I eat sometimes at home) are wonderful. For a quiet, affordable, and conveniently located hotel in OC, I highly recommend this Travelodge. I will stay here again.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r387125738-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>387125738</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r386283646-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>386283646</t>
+  </si>
+  <si>
+    <t>06/26/2016</t>
+  </si>
+  <si>
+    <t>Never again!!!!</t>
+  </si>
+  <si>
+    <t>This place is the worst place ever.  It is right on a main street.  On the corner  light.  It was very noisy.  The front desk clerk (ken) is not very helpful (trying to be nice).  I went to ask to be moved to another room.  No was his answer.  Asked for a refund.  No was his answer.  I had already paid.  He would not give me my money back.  It stinks, not safe, their was a big hole in the wall.  It look like rats had made it.  DO NOT BOOK THIS PLACE!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r385313057-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>385313057</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r379218321-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>379218321</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>usually all the Travelodge places we have stayed have full breakfast variety and is equipped with iron and iron board. this one only had bread, coffee and juice. It had no Iron or Iron board.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r378644683-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>378644683</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r371495556-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>371495556</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r360764373-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>360764373</t>
+  </si>
+  <si>
+    <t>04/01/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r360747738-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>360747738</t>
+  </si>
+  <si>
+    <t>Worst stay ever!</t>
+  </si>
+  <si>
+    <t>The receptionists were all equally horrible. When asked or called for items they complained or felt the need to explain why items were not given. Hotel was not cleaned very well either. Will not recommend or stay at this location again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r358855458-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>358855458</t>
+  </si>
+  <si>
+    <t>03/26/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r356189561-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>356189561</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>Clean  average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Place is nice and clean the only thing was you are able to hear ur neighbors. Thin walls I'm assuming. Other than that it was all good. Complementary breakfast is just snacks like juicy and fruits, muffin, yogurt. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r355173186-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>355173186</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>Very Good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the first Travelodge I stayed at (Out of 3) that was actually comfortable in a great location. The only thing, which is a small issue was that they don't have a hot breakfast but they do have snacks and little things to much on. The staff was nice and friendly. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r354227723-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>354227723</t>
+  </si>
+  <si>
+    <t>03/09/2016</t>
+  </si>
+  <si>
+    <t>The worst hotel customer service</t>
+  </si>
+  <si>
+    <t>The customer service at the front desk is very poor. They have no regards for the customer. The night manager is also very rude and not attentive to the needs of the customer. Would not recommend this place to anyone.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r348552443-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>348552443</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r348480256-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>348480256</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r337953086-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>337953086</t>
+  </si>
+  <si>
+    <t>01/06/2016</t>
+  </si>
+  <si>
+    <t>Clean but not clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was descent. Housekeeping could maintain the rooms better. I felt as if the room had never been vacuumed. I would stay here again only if the per night rate was reduced. </t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r333442892-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>333442892</t>
+  </si>
+  <si>
+    <t>12/16/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r328904576-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>328904576</t>
+  </si>
+  <si>
+    <t>11/24/2015</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r327608279-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>327608279</t>
+  </si>
+  <si>
+    <t>11/18/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r326581146-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>326581146</t>
+  </si>
+  <si>
+    <t>11/13/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r322214355-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>322214355</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r320156675-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>320156675</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>We were looking for somewhere close to work and near the freeway. We loved everything about this location. The gentlemen at check in was very accomodating with finding me a downstairs room. The room ktself had all amenities including a king size bed that was very co fortable. Had a great nights sleep. Can't wait to stay again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r315691087-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>315691087</t>
+  </si>
+  <si>
+    <t>10/02/2015</t>
+  </si>
+  <si>
+    <t>Not far from Disneyland, but could use some modernization</t>
+  </si>
+  <si>
+    <t>We had a room with two double beds and it was quite cramped. One bed was right up against the air conditioning unit. Additionally, the unit didn't have an auto temperature shutoff, so the room froze at night on the low setting but the room got too hot when turned off completely.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r314357558-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>314357558</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r313295790-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>313295790</t>
+  </si>
+  <si>
+    <t>09/24/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r302517671-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>302517671</t>
+  </si>
+  <si>
+    <t>08/23/2015</t>
+  </si>
+  <si>
+    <t>comforting and just right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i am a very particular person and require the basic comforts with a clean non-smelling room with  properly functional features from shower/bath to sink , a/c-heater and no unexpected critters -this hotel room was perfect with everything just right- my host at front desk on that day of ck-in honored my reqst for no room service and xtra towels for the days i stayed- i really appreciated that and his respect for my  privacy- thank you. </t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r301684517-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>301684517</t>
+  </si>
+  <si>
+    <t>08/20/2015</t>
+  </si>
+  <si>
+    <t>Would stay here again</t>
+  </si>
+  <si>
+    <t>My family of 2 teen boys and my husband and myself stayed here on a recent trip to Disneyland. It was easy to get to, staff was friendly, and we drove in and parked at toy story lot (easier than mickey and friends).The beds were kinda hard.. but it's a motel... but the room was very clean, and well equipped with a refrigerator and microwave and flat screen TV. Bathroom had an odd odor that I couldn't place. May have been cleaning product.. it was a small bathroom .. but it was very clean. There is a 711 within walking distance, and a food store across the street. Very convenient. Our family was very pleased overall for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family of 2 teen boys and my husband and myself stayed here on a recent trip to Disneyland. It was easy to get to, staff was friendly, and we drove in and parked at toy story lot (easier than mickey and friends).The beds were kinda hard.. but it's a motel... but the room was very clean, and well equipped with a refrigerator and microwave and flat screen TV. Bathroom had an odd odor that I couldn't place. May have been cleaning product.. it was a small bathroom .. but it was very clean. There is a 711 within walking distance, and a food store across the street. Very convenient. Our family was very pleased overall for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r293762261-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>293762261</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Clean motel not far from Disneyland</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for 3 nights while on a road trip. We went during the summer and nearly all the hotels surrounding Disneyland were booked full, and the ones that were not were out of our price range. Travelodge Fullerton provided everything we needed while we were in the area for an inexpensive price. It's right off the freeway, making it a quick drive to Disneyland, Downtown Disney, etc. The room was clean and the staff accommodated our late arrival/check-in. If your expecting the amenities of a 3 or 4-star hotel, you may be disappointed. However, if you're just looking for a place to sleep after a long day in the parks or exploring, this is a great central location. I would recommend staying here!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for 3 nights while on a road trip. We went during the summer and nearly all the hotels surrounding Disneyland were booked full, and the ones that were not were out of our price range. Travelodge Fullerton provided everything we needed while we were in the area for an inexpensive price. It's right off the freeway, making it a quick drive to Disneyland, Downtown Disney, etc. The room was clean and the staff accommodated our late arrival/check-in. If your expecting the amenities of a 3 or 4-star hotel, you may be disappointed. However, if you're just looking for a place to sleep after a long day in the parks or exploring, this is a great central location. I would recommend staying here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r287734975-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>287734975</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>The room was clean and they had a good selection of tv programs. The tv was a flat screen LG and there was small fridge, microwave, coffee maker, writing desk, and hair dryer. Overall, very accommodating.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r286616596-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>286616596</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r286591694-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>286591694</t>
+  </si>
+  <si>
+    <t>Super friendly and clean. Asked for a non smoking room and...</t>
+  </si>
+  <si>
+    <t>Super friendly and clean. Asked for a non smoking room and this is the first time my room did not have a lingering cigarette smell embedded in the walls. I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r277410484-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>277410484</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r276141220-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>276141220</t>
+  </si>
+  <si>
+    <t>05/31/2015</t>
+  </si>
+  <si>
+    <t>Awesome hospitality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My husband and I came into town for the ASU/Fullerton baseball game. It went 14 innings and we ended up getting to the hotel around 2am. The man that greeted us was very friendly. We got into the room and it was great! There was a refrigerator and microwave!! I was happy because when I looked online the hotel didn't say it had either! Huge PLUS! The bed was very comfortable and so were the pillows. We would most definitely stay here again. Great price and great service. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r275836036-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>275836036</t>
+  </si>
+  <si>
+    <t>05/30/2015</t>
+  </si>
+  <si>
+    <t>Not what I expected</t>
+  </si>
+  <si>
+    <t>I only asked three questions for each of the hotels I stayed at on this trip.  Is there high speed internet? Is the pool heated, and is there a hot tub?  The wifi was horribly slow... and hard to connect to.  The pool was not heated... and the hot tub was closed down by the health department.   On the other hand, the rooms were nice, clean... and the tv was modern.  The breakfast was very good, and the owners were pleasant. ۞♀Wolf♔,’’, ^⊰❂❂⊱^ ,’’,</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r259855457-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>259855457</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>Not the best not the worst</t>
+  </si>
+  <si>
+    <t>Lets start with what was good it was clean, it had a microwave and small freezer fridge and small cafepot withe comp coffee and cups as well as blow dryer. Now for the downside there was no pool or hottube the floor towl was durty and the bedspread had stains the tv was small and the frontdesk lady never welcomed use becase she was like ice just cold.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r259835032-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>259835032</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r258834147-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>258834147</t>
+  </si>
+  <si>
+    <t>03/10/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r238286076-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>238286076</t>
+  </si>
+  <si>
+    <t>11/05/2014</t>
+  </si>
+  <si>
+    <t>small and no parking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was okay not much room for two peoole to walk around!  Parking was not very addequite, had to park my truck on backside of hotel due to our side only had 10 parking spots. Other than that close to frwy and lotsvof stores, easy to find, </t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r235738435-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>235738435</t>
+  </si>
+  <si>
+    <t>10/22/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r226793006-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>226793006</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>Faulse advertaisment</t>
+  </si>
+  <si>
+    <t>Horible for price you pay. When searching on line thru Wyndham stated spa and continental breakfast. No spa or breakfast served. The from desk when check in would not even mentioned about their breakfast not being served. I had to ask and been given 2 5$ cards to McDonalds. Joke. I am very disappointed. Price was very high for this type of place. Would not ever book again !</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r221172366-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>221172366</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r217871110-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>217871110</t>
+  </si>
+  <si>
+    <t>07/27/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r216154211-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>216154211</t>
+  </si>
+  <si>
+    <t>07/18/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r209811793-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>209811793</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r207691830-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>207691830</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>My stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff was friendly like always rooms very clean love the cable and flat screens. I will be back </t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r200263622-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>200263622</t>
+  </si>
+  <si>
+    <t>04/07/2014</t>
+  </si>
+  <si>
+    <t>Close enough to Disney but a little farther</t>
+  </si>
+  <si>
+    <t>I found this property around St. Patrick's weekend. I went for a visit to Disney and was going to stay w/ my son but he was sick for a week and I didn't want to catch anything. This property is one freeway exit from Disney but close enough to my son's Fullerton address. The place was clean, had all the basics, had continental breakfast, friendly staff. I asked for extra pillows and got them. There's an ice machine and vending machine. The room had a microwave and fridge. As I said, had all the basics, even a hair dryer. I'm definitely coming back. Good value and close enough to Disney, but far enough from the hussle and bussle.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>I found this property around St. Patrick's weekend. I went for a visit to Disney and was going to stay w/ my son but he was sick for a week and I didn't want to catch anything. This property is one freeway exit from Disney but close enough to my son's Fullerton address. The place was clean, had all the basics, had continental breakfast, friendly staff. I asked for extra pillows and got them. There's an ice machine and vending machine. The room had a microwave and fridge. As I said, had all the basics, even a hair dryer. I'm definitely coming back. Good value and close enough to Disney, but far enough from the hussle and bussle.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r196922595-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>196922595</t>
+  </si>
+  <si>
+    <t>03/10/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r196245458-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>196245458</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r193214459-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>193214459</t>
+  </si>
+  <si>
+    <t>02/05/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r147162596-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>147162596</t>
+  </si>
+  <si>
+    <t>12/10/2012</t>
+  </si>
+  <si>
+    <t>great place</t>
+  </si>
+  <si>
+    <t>i stayed here for two nights while my house was getting fumigated. the place is clean, decently priced, and the staff is very nice.i would stay here again and i will definitely recommend this place to my family/friends that come into town to visit.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r127449729-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>127449729</t>
+  </si>
+  <si>
+    <t>04/08/2012</t>
+  </si>
+  <si>
+    <t>Not very nice staff to me I use to much toilet paper when I asked for another roll had to buy my own</t>
+  </si>
+  <si>
+    <t>alright beds crummy staff.do not ask for more tp. Bring ur own</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r127151876-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
+  </si>
+  <si>
+    <t>127151876</t>
+  </si>
+  <si>
+    <t>04/02/2012</t>
+  </si>
+  <si>
+    <t>Cozy hotel and very friendly</t>
+  </si>
+  <si>
+    <t>My family and I came to California to go to Disneyland.  We did not want to spend alot on hotel rooms but of course wanted a comfortable and clean place to stay.  Fullerton Plaza Innn was perfect.  The front desk staff were so friendly and ever so helpful.  Their prices were affordable.  We will be staying there again nexty year!</t>
+  </si>
+  <si>
+    <t>March 2012</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1812,5334 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>88</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" t="s">
+        <v>88</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>102</v>
+      </c>
+      <c r="O12" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>115</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" t="s">
+        <v>120</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>115</v>
+      </c>
+      <c r="O15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16" t="s">
+        <v>123</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>115</v>
+      </c>
+      <c r="O16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>127</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" t="s">
+        <v>131</v>
+      </c>
+      <c r="L18" t="s">
+        <v>132</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>127</v>
+      </c>
+      <c r="O18" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J19" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" t="s">
+        <v>137</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>127</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>139</v>
+      </c>
+      <c r="J20" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" t="s">
+        <v>141</v>
+      </c>
+      <c r="L20" t="s">
+        <v>142</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>143</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>145</v>
+      </c>
+      <c r="J21" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" t="s">
+        <v>147</v>
+      </c>
+      <c r="L21" t="s">
+        <v>148</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>149</v>
+      </c>
+      <c r="O21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>149</v>
+      </c>
+      <c r="O22" t="s">
+        <v>96</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>154</v>
+      </c>
+      <c r="J23" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>156</v>
+      </c>
+      <c r="O23" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>158</v>
+      </c>
+      <c r="J24" t="s">
+        <v>159</v>
+      </c>
+      <c r="K24" t="s">
+        <v>160</v>
+      </c>
+      <c r="L24" t="s">
+        <v>161</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>156</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>163</v>
+      </c>
+      <c r="J25" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" t="s">
+        <v>165</v>
+      </c>
+      <c r="L25" t="s">
+        <v>166</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>167</v>
+      </c>
+      <c r="O25" t="s">
+        <v>88</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>169</v>
+      </c>
+      <c r="J26" t="s">
+        <v>170</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s">
+        <v>171</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>172</v>
+      </c>
+      <c r="O26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>175</v>
+      </c>
+      <c r="J27" t="s">
+        <v>176</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>172</v>
+      </c>
+      <c r="O27" t="s">
+        <v>88</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>177</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>178</v>
+      </c>
+      <c r="J28" t="s">
+        <v>179</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>180</v>
+      </c>
+      <c r="O28" t="s">
+        <v>88</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>181</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>182</v>
+      </c>
+      <c r="J29" t="s">
+        <v>183</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>184</v>
+      </c>
+      <c r="O29" t="s">
+        <v>88</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>186</v>
+      </c>
+      <c r="J30" t="s">
+        <v>187</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>184</v>
+      </c>
+      <c r="O30" t="s">
+        <v>88</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>188</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>189</v>
+      </c>
+      <c r="J31" t="s">
+        <v>190</v>
+      </c>
+      <c r="K31" t="s">
+        <v>191</v>
+      </c>
+      <c r="L31" t="s">
+        <v>192</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>184</v>
+      </c>
+      <c r="O31" t="s">
+        <v>64</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>194</v>
+      </c>
+      <c r="J32" t="s">
+        <v>195</v>
+      </c>
+      <c r="K32" t="s">
+        <v>196</v>
+      </c>
+      <c r="L32" t="s">
+        <v>197</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>198</v>
+      </c>
+      <c r="O32" t="s">
+        <v>59</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>199</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>200</v>
+      </c>
+      <c r="J33" t="s">
+        <v>201</v>
+      </c>
+      <c r="K33" t="s">
+        <v>202</v>
+      </c>
+      <c r="L33" t="s">
+        <v>203</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>198</v>
+      </c>
+      <c r="O33" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>204</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>205</v>
+      </c>
+      <c r="J34" t="s">
+        <v>206</v>
+      </c>
+      <c r="K34" t="s">
+        <v>207</v>
+      </c>
+      <c r="L34" t="s">
+        <v>208</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>209</v>
+      </c>
+      <c r="O34" t="s">
+        <v>64</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>210</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>211</v>
+      </c>
+      <c r="J35" t="s">
+        <v>212</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>213</v>
+      </c>
+      <c r="O35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>214</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>215</v>
+      </c>
+      <c r="J36" t="s">
+        <v>216</v>
+      </c>
+      <c r="K36" t="s">
+        <v>217</v>
+      </c>
+      <c r="L36" t="s">
+        <v>218</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>213</v>
+      </c>
+      <c r="O36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>219</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>220</v>
+      </c>
+      <c r="J37" t="s">
+        <v>221</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>213</v>
+      </c>
+      <c r="O37" t="s">
+        <v>59</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>222</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>223</v>
+      </c>
+      <c r="J38" t="s">
+        <v>224</v>
+      </c>
+      <c r="K38" t="s">
+        <v>225</v>
+      </c>
+      <c r="L38" t="s">
+        <v>226</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>227</v>
+      </c>
+      <c r="O38" t="s">
+        <v>59</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>228</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>229</v>
+      </c>
+      <c r="J39" t="s">
+        <v>230</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O39" t="s">
+        <v>59</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>231</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>232</v>
+      </c>
+      <c r="J40" t="s">
+        <v>233</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s">
+        <v>171</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>227</v>
+      </c>
+      <c r="O40" t="s">
+        <v>59</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>234</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>235</v>
+      </c>
+      <c r="J41" t="s">
+        <v>236</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>167</v>
+      </c>
+      <c r="O41" t="s">
+        <v>88</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>237</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>238</v>
+      </c>
+      <c r="J42" t="s">
+        <v>236</v>
+      </c>
+      <c r="K42" t="s">
+        <v>239</v>
+      </c>
+      <c r="L42" t="s">
+        <v>240</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>167</v>
+      </c>
+      <c r="O42" t="s">
+        <v>59</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>241</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>242</v>
+      </c>
+      <c r="J43" t="s">
+        <v>243</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>167</v>
+      </c>
+      <c r="O43" t="s">
+        <v>96</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>244</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>245</v>
+      </c>
+      <c r="J44" t="s">
+        <v>246</v>
+      </c>
+      <c r="K44" t="s">
+        <v>247</v>
+      </c>
+      <c r="L44" t="s">
+        <v>248</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>167</v>
+      </c>
+      <c r="O44" t="s">
+        <v>88</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>249</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>250</v>
+      </c>
+      <c r="J45" t="s">
+        <v>251</v>
+      </c>
+      <c r="K45" t="s">
+        <v>252</v>
+      </c>
+      <c r="L45" t="s">
+        <v>253</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>167</v>
+      </c>
+      <c r="O45" t="s">
+        <v>88</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>254</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>255</v>
+      </c>
+      <c r="J46" t="s">
+        <v>256</v>
+      </c>
+      <c r="K46" t="s">
+        <v>257</v>
+      </c>
+      <c r="L46" t="s">
+        <v>258</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>167</v>
+      </c>
+      <c r="O46" t="s">
+        <v>64</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>259</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>260</v>
+      </c>
+      <c r="J47" t="s">
+        <v>261</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>262</v>
+      </c>
+      <c r="O47" t="s">
+        <v>64</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>263</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>264</v>
+      </c>
+      <c r="J48" t="s">
+        <v>261</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s"/>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>262</v>
+      </c>
+      <c r="O48" t="s">
+        <v>88</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>265</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>266</v>
+      </c>
+      <c r="J49" t="s">
+        <v>267</v>
+      </c>
+      <c r="K49" t="s">
+        <v>268</v>
+      </c>
+      <c r="L49" t="s">
+        <v>269</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>270</v>
+      </c>
+      <c r="O49" t="s">
+        <v>88</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>271</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>272</v>
+      </c>
+      <c r="J50" t="s">
+        <v>273</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s"/>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>270</v>
+      </c>
+      <c r="O50" t="s">
+        <v>88</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>274</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>275</v>
+      </c>
+      <c r="J51" t="s">
+        <v>276</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>277</v>
+      </c>
+      <c r="O51" t="s">
+        <v>88</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>278</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>279</v>
+      </c>
+      <c r="J52" t="s">
+        <v>280</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>277</v>
+      </c>
+      <c r="O52" t="s">
+        <v>59</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>281</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>282</v>
+      </c>
+      <c r="J53" t="s">
+        <v>283</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s"/>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>277</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>284</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>285</v>
+      </c>
+      <c r="J54" t="s">
+        <v>286</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>287</v>
+      </c>
+      <c r="O54" t="s">
+        <v>59</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>288</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>289</v>
+      </c>
+      <c r="J55" t="s">
+        <v>290</v>
+      </c>
+      <c r="K55" t="s">
+        <v>291</v>
+      </c>
+      <c r="L55" t="s">
+        <v>292</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>287</v>
+      </c>
+      <c r="O55" t="s">
+        <v>64</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>293</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>294</v>
+      </c>
+      <c r="J56" t="s">
+        <v>295</v>
+      </c>
+      <c r="K56" t="s">
+        <v>296</v>
+      </c>
+      <c r="L56" t="s">
+        <v>297</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>298</v>
+      </c>
+      <c r="O56" t="s">
+        <v>59</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>299</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>300</v>
+      </c>
+      <c r="J57" t="s">
+        <v>301</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>298</v>
+      </c>
+      <c r="O57" t="s">
+        <v>59</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>302</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>303</v>
+      </c>
+      <c r="J58" t="s">
+        <v>304</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>298</v>
+      </c>
+      <c r="O58" t="s">
+        <v>88</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>305</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>306</v>
+      </c>
+      <c r="J59" t="s">
+        <v>307</v>
+      </c>
+      <c r="K59" t="s">
+        <v>308</v>
+      </c>
+      <c r="L59" t="s">
+        <v>309</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>310</v>
+      </c>
+      <c r="O59" t="s">
+        <v>59</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>311</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>312</v>
+      </c>
+      <c r="J60" t="s">
+        <v>313</v>
+      </c>
+      <c r="K60" t="s">
+        <v>314</v>
+      </c>
+      <c r="L60" t="s">
+        <v>315</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>310</v>
+      </c>
+      <c r="O60" t="s">
+        <v>59</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>317</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>318</v>
+      </c>
+      <c r="J61" t="s">
+        <v>319</v>
+      </c>
+      <c r="K61" t="s">
+        <v>320</v>
+      </c>
+      <c r="L61" t="s">
+        <v>321</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>322</v>
+      </c>
+      <c r="O61" t="s">
+        <v>88</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>324</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>325</v>
+      </c>
+      <c r="J62" t="s">
+        <v>326</v>
+      </c>
+      <c r="K62" t="s">
+        <v>327</v>
+      </c>
+      <c r="L62" t="s">
+        <v>328</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>322</v>
+      </c>
+      <c r="O62" t="s">
+        <v>64</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>329</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>330</v>
+      </c>
+      <c r="J63" t="s">
+        <v>331</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s"/>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>322</v>
+      </c>
+      <c r="O63" t="s">
+        <v>88</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>332</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>333</v>
+      </c>
+      <c r="J64" t="s">
+        <v>331</v>
+      </c>
+      <c r="K64" t="s">
+        <v>334</v>
+      </c>
+      <c r="L64" t="s">
+        <v>335</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>322</v>
+      </c>
+      <c r="O64" t="s">
+        <v>59</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>336</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>337</v>
+      </c>
+      <c r="J65" t="s">
+        <v>338</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>339</v>
+      </c>
+      <c r="O65" t="s">
+        <v>88</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>340</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>341</v>
+      </c>
+      <c r="J66" t="s">
+        <v>342</v>
+      </c>
+      <c r="K66" t="s">
+        <v>343</v>
+      </c>
+      <c r="L66" t="s">
+        <v>344</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>339</v>
+      </c>
+      <c r="O66" t="s">
+        <v>88</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>345</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>346</v>
+      </c>
+      <c r="J67" t="s">
+        <v>347</v>
+      </c>
+      <c r="K67" t="s">
+        <v>348</v>
+      </c>
+      <c r="L67" t="s">
+        <v>349</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>339</v>
+      </c>
+      <c r="O67" t="s">
+        <v>59</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>350</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>351</v>
+      </c>
+      <c r="J68" t="s">
+        <v>352</v>
+      </c>
+      <c r="K68" t="s">
+        <v>353</v>
+      </c>
+      <c r="L68" t="s">
+        <v>354</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>355</v>
+      </c>
+      <c r="O68" t="s">
+        <v>88</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>356</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>357</v>
+      </c>
+      <c r="J69" t="s">
+        <v>352</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s"/>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>355</v>
+      </c>
+      <c r="O69" t="s">
+        <v>59</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>358</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>359</v>
+      </c>
+      <c r="J70" t="s">
+        <v>360</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s"/>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>355</v>
+      </c>
+      <c r="O70" t="s">
+        <v>64</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>361</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>362</v>
+      </c>
+      <c r="J71" t="s">
+        <v>363</v>
+      </c>
+      <c r="K71" t="s">
+        <v>364</v>
+      </c>
+      <c r="L71" t="s">
+        <v>365</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>366</v>
+      </c>
+      <c r="O71" t="s">
+        <v>88</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>367</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>368</v>
+      </c>
+      <c r="J72" t="s">
+        <v>369</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>366</v>
+      </c>
+      <c r="O72" t="s">
+        <v>59</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>370</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>371</v>
+      </c>
+      <c r="J73" t="s">
+        <v>372</v>
+      </c>
+      <c r="K73" t="s">
+        <v>373</v>
+      </c>
+      <c r="L73" t="s">
+        <v>374</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>375</v>
+      </c>
+      <c r="O73" t="s">
+        <v>59</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>376</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>377</v>
+      </c>
+      <c r="J74" t="s">
+        <v>378</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>379</v>
+      </c>
+      <c r="O74" t="s">
+        <v>64</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>380</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>381</v>
+      </c>
+      <c r="J75" t="s">
+        <v>382</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s"/>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>383</v>
+      </c>
+      <c r="O75" t="s">
+        <v>96</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>384</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>385</v>
+      </c>
+      <c r="J76" t="s">
+        <v>386</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>383</v>
+      </c>
+      <c r="O76" t="s">
+        <v>59</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>387</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>388</v>
+      </c>
+      <c r="J77" t="s">
+        <v>389</v>
+      </c>
+      <c r="K77" t="s"/>
+      <c r="L77" t="s"/>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>390</v>
+      </c>
+      <c r="O77" t="s">
+        <v>96</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>391</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>392</v>
+      </c>
+      <c r="J78" t="s">
+        <v>393</v>
+      </c>
+      <c r="K78" t="s">
+        <v>394</v>
+      </c>
+      <c r="L78" t="s">
+        <v>395</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>396</v>
+      </c>
+      <c r="O78" t="s">
+        <v>64</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>397</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>398</v>
+      </c>
+      <c r="J79" t="s">
+        <v>399</v>
+      </c>
+      <c r="K79" t="s">
+        <v>400</v>
+      </c>
+      <c r="L79" t="s">
+        <v>401</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>402</v>
+      </c>
+      <c r="O79" t="s">
+        <v>96</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>404</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>405</v>
+      </c>
+      <c r="J80" t="s">
+        <v>406</v>
+      </c>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s"/>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>407</v>
+      </c>
+      <c r="O80" t="s">
+        <v>64</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>408</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>409</v>
+      </c>
+      <c r="J81" t="s">
+        <v>410</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s"/>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>411</v>
+      </c>
+      <c r="O81" t="s">
+        <v>88</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>412</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>413</v>
+      </c>
+      <c r="J82" t="s">
+        <v>414</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>411</v>
+      </c>
+      <c r="O82" t="s">
+        <v>59</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>415</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>416</v>
+      </c>
+      <c r="J83" t="s">
+        <v>417</v>
+      </c>
+      <c r="K83" t="s">
+        <v>418</v>
+      </c>
+      <c r="L83" t="s">
+        <v>419</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>420</v>
+      </c>
+      <c r="O83" t="s">
+        <v>88</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>421</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>422</v>
+      </c>
+      <c r="J84" t="s">
+        <v>423</v>
+      </c>
+      <c r="K84" t="s">
+        <v>424</v>
+      </c>
+      <c r="L84" t="s">
+        <v>425</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>5898</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>426</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>427</v>
+      </c>
+      <c r="J85" t="s">
+        <v>428</v>
+      </c>
+      <c r="K85" t="s">
+        <v>429</v>
+      </c>
+      <c r="L85" t="s">
+        <v>430</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>431</v>
+      </c>
+      <c r="O85" t="s">
+        <v>59</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>430</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_791.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_791.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="516">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>elrafa8a</t>
+  </si>
+  <si>
     <t>07/12/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>jalvar145407</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r567952036-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>702harryb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r567913304-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>stephaniezrobinson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r559679149-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -231,6 +243,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>707tiagob</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r557382363-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -246,6 +261,9 @@
     <t xml:space="preserve">Good localization but terrible employees. They charged me 20 dollars for a employee mistake. and they did't take it back. There was no parking place for the guests, our room key was desconfigurated... etc </t>
   </si>
   <si>
+    <t>Mario P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r556907163-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -255,6 +273,9 @@
     <t>01/28/2018</t>
   </si>
   <si>
+    <t>toniat765</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r540952421-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -267,6 +288,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>Jastine D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r540338826-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -288,6 +312,9 @@
     <t>I have stayed at my Wyndham Hotel Group for the past 11 years and Travelodge Fullerton was disappointing. Only upside is that it is 10 minutes away from Disneyland and near freeway entrance. Staff was friendly.We stayed in Room 121Disappointed by:Reusing of key sleeve. I understand we are trying to be “eco friendly” and recycle things but come on! When a key sleeve is practically dirty and brown don’t give to new customer. (Photo Attached)Beds Sheets are old, with holes, looks like cigarette burns. (Photo attached) Needs major renovation. Pillows  should no longer be called a pillow as it was flat as a blanket when you laid your head on it. Tv / Light Location: There is a light fixture right next to the television screen not sure why its there. But its blinding when you are trying to watch television. (Photo Attached)Very old structure. Walls are very thin. Could here anyone who would walk by the room or any cars that were passing by.  Cabinet had no handle could not open to use to store things. AC unit is probably from the 70s it didn’t get cold and was super loud.Very disappointed.  More</t>
   </si>
   <si>
+    <t>John-Virginia2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r537266111-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -309,6 +336,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Mary T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r527345674-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -327,6 +357,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>325hectore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r521438302-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -336,6 +369,9 @@
     <t>09/05/2017</t>
   </si>
   <si>
+    <t>T9320PFmichellet</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r516809050-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -354,6 +390,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>Debbie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r506229249-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -366,6 +405,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>G5346NXpedror</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r503907265-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -381,6 +423,9 @@
     <t xml:space="preserve">It was a hot day and night.  I was only there at night.  But couldn't sleep, due to a very hot night and bad air conditioning in my room.  I don't think they all had bad air conditioning,   but mine did.  It was a hot, sticky, miserable night. </t>
   </si>
   <si>
+    <t>Pat669</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r503696301-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -390,6 +435,9 @@
     <t>07/19/2017</t>
   </si>
   <si>
+    <t>8004505</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r498313931-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -402,6 +450,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>michaelkB5219CA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r497198240-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -417,6 +468,9 @@
     <t xml:space="preserve">The hotel room was clean. Handles on the furniture were falling off. On one day we were missing coffee, bath mat, 1 towel. Had to go the next morning to get all the items. </t>
   </si>
   <si>
+    <t>Karen S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r494412208-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -432,6 +486,9 @@
     <t>The room wasn't ready. There was nowhere to wait until it was.  The air conditioner was broken.  The window lock was broken.   Did not feel safe. I left and stayed elsewhere.  Old and dirty.  Not worth the money.</t>
   </si>
   <si>
+    <t>906stanleyc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r482498044-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -450,6 +507,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>Peggy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r477480399-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -468,6 +528,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>S6427TVgabrielp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r472779981-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -477,6 +540,9 @@
     <t>04/04/2017</t>
   </si>
   <si>
+    <t>Micheal K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r466618651-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -489,6 +555,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>John K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r466309431-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -504,6 +573,9 @@
     <t>A very clean and quite place to stay. Located in a great area that is close to Disneyland and Knott's Berry Farm. I will stay again.</t>
   </si>
   <si>
+    <t>Anessia C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r460131641-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -522,6 +594,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Cindy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r449724336-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -540,6 +615,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>548xm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r447208784-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -549,6 +627,9 @@
     <t>12/28/2016</t>
   </si>
   <si>
+    <t>Kathryn M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r438862515-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -561,6 +642,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>socalmtngal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r434293201-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -573,6 +657,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Tim M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r431543523-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -582,6 +669,9 @@
     <t>10/25/2016</t>
   </si>
   <si>
+    <t>Darlene M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r429899225-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -597,6 +687,9 @@
     <t>The room was very clean could feel people walking around below and outside on the walk way, but I will stay there again when I have a business meeting in Fullerton It is a older Motel so you have to take that in consideration it was nice.</t>
   </si>
   <si>
+    <t>278belindaa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r416659655-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -615,6 +708,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>honeymoon418</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r414342951-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -630,6 +726,9 @@
     <t>Never have we stayed at a hotel that charges for an early check-in, requires a deposit in addition to the room charge &amp; only allows one car per room. We had a really hard time understanding the front desk clerk and felt very uncomfortable with how everything was handled.</t>
   </si>
   <si>
+    <t>F2680ZIjustinb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r392875291-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -648,6 +747,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Tanya C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r387125738-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -660,6 +762,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>joseu572</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r386283646-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -675,6 +780,9 @@
     <t>This place is the worst place ever.  It is right on a main street.  On the corner  light.  It was very noisy.  The front desk clerk (ken) is not very helpful (trying to be nice).  I went to ask to be moved to another room.  No was his answer.  Asked for a refund.  No was his answer.  I had already paid.  He would not give me my money back.  It stinks, not safe, their was a big hole in the wall.  It look like rats had made it.  DO NOT BOOK THIS PLACE!!!!</t>
   </si>
   <si>
+    <t>Bret K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r385313057-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -684,6 +792,9 @@
     <t>06/23/2016</t>
   </si>
   <si>
+    <t>901marissac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r379218321-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -702,6 +813,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>fromlasvegas2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r378644683-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -711,6 +825,9 @@
     <t>06/01/2016</t>
   </si>
   <si>
+    <t>rude1260</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r371495556-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -720,6 +837,9 @@
     <t>05/09/2016</t>
   </si>
   <si>
+    <t>904esmirnar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r360764373-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -729,6 +849,9 @@
     <t>04/01/2016</t>
   </si>
   <si>
+    <t>guest874</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r360747738-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -741,6 +864,9 @@
     <t>The receptionists were all equally horrible. When asked or called for items they complained or felt the need to explain why items were not given. Hotel was not cleaned very well either. Will not recommend or stay at this location again.</t>
   </si>
   <si>
+    <t>Wally N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r358855458-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -750,6 +876,9 @@
     <t>03/26/2016</t>
   </si>
   <si>
+    <t>deissya2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r356189561-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -765,6 +894,9 @@
     <t xml:space="preserve">Place is nice and clean the only thing was you are able to hear ur neighbors. Thin walls I'm assuming. Other than that it was all good. Complementary breakfast is just snacks like juicy and fruits, muffin, yogurt. </t>
   </si>
   <si>
+    <t>Henry C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r355173186-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -780,6 +912,9 @@
     <t xml:space="preserve">This is the first Travelodge I stayed at (Out of 3) that was actually comfortable in a great location. The only thing, which is a small issue was that they don't have a hot breakfast but they do have snacks and little things to much on. The staff was nice and friendly. </t>
   </si>
   <si>
+    <t>MRKB876</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r354227723-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -795,6 +930,9 @@
     <t>The customer service at the front desk is very poor. They have no regards for the customer. The night manager is also very rude and not attentive to the needs of the customer. Would not recommend this place to anyone.</t>
   </si>
   <si>
+    <t>649anjelicag</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r348552443-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -807,12 +945,18 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>P2786UArobertp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r348480256-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
     <t>348480256</t>
   </si>
   <si>
+    <t>908johnnyv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r337953086-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -831,6 +975,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>adriannac364</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r333442892-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -840,6 +987,9 @@
     <t>12/16/2015</t>
   </si>
   <si>
+    <t>ritak432</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r328904576-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -852,6 +1002,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Jennifer S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r327608279-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -861,6 +1014,9 @@
     <t>11/18/2015</t>
   </si>
   <si>
+    <t>Floyd G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r326581146-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -870,6 +1026,9 @@
     <t>11/13/2015</t>
   </si>
   <si>
+    <t>passingthrough530</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r322214355-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -882,6 +1041,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>christys656</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r320156675-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -897,6 +1059,9 @@
     <t>We were looking for somewhere close to work and near the freeway. We loved everything about this location. The gentlemen at check in was very accomodating with finding me a downstairs room. The room ktself had all amenities including a king size bed that was very co fortable. Had a great nights sleep. Can't wait to stay again!</t>
   </si>
   <si>
+    <t>Justin H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r315691087-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -915,6 +1080,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>S8854VRmichaelg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r314357558-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -924,6 +1092,9 @@
     <t>09/28/2015</t>
   </si>
   <si>
+    <t>699conniec</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r313295790-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -933,6 +1104,9 @@
     <t>09/24/2015</t>
   </si>
   <si>
+    <t>T7309TNjohna</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r302517671-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -951,6 +1125,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>PandorahX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r301684517-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -969,6 +1146,9 @@
     <t>My family of 2 teen boys and my husband and myself stayed here on a recent trip to Disneyland. It was easy to get to, staff was friendly, and we drove in and parked at toy story lot (easier than mickey and friends).The beds were kinda hard.. but it's a motel... but the room was very clean, and well equipped with a refrigerator and microwave and flat screen TV. Bathroom had an odd odor that I couldn't place. May have been cleaning product.. it was a small bathroom .. but it was very clean. There is a 711 within walking distance, and a food store across the street. Very convenient. Our family was very pleased overall for the price.More</t>
   </si>
   <si>
+    <t>stephaniea723</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r293762261-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -990,6 +1170,9 @@
     <t>My husband and I stayed here for 3 nights while on a road trip. We went during the summer and nearly all the hotels surrounding Disneyland were booked full, and the ones that were not were out of our price range. Travelodge Fullerton provided everything we needed while we were in the area for an inexpensive price. It's right off the freeway, making it a quick drive to Disneyland, Downtown Disney, etc. The room was clean and the staff accommodated our late arrival/check-in. If your expecting the amenities of a 3 or 4-star hotel, you may be disappointed. However, if you're just looking for a place to sleep after a long day in the parks or exploring, this is a great central location. I would recommend staying here!More</t>
   </si>
   <si>
+    <t>danofdago</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r287734975-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -1005,6 +1188,9 @@
     <t>The room was clean and they had a good selection of tv programs. The tv was a flat screen LG and there was small fridge, microwave, coffee maker, writing desk, and hair dryer. Overall, very accommodating.</t>
   </si>
   <si>
+    <t>357inezg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r286616596-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -1014,6 +1200,9 @@
     <t>07/07/2015</t>
   </si>
   <si>
+    <t>antionettec162</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r286591694-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -1026,6 +1215,9 @@
     <t>Super friendly and clean. Asked for a non smoking room and this is the first time my room did not have a lingering cigarette smell embedded in the walls. I would definitely stay here again.</t>
   </si>
   <si>
+    <t>T6781KLdis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r277410484-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -1038,6 +1230,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Mindy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r276141220-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -1053,6 +1248,9 @@
     <t xml:space="preserve">My husband and I came into town for the ASU/Fullerton baseball game. It went 14 innings and we ended up getting to the hotel around 2am. The man that greeted us was very friendly. We got into the room and it was great! There was a refrigerator and microwave!! I was happy because when I looked online the hotel didn't say it had either! Huge PLUS! The bed was very comfortable and so were the pillows. We would most definitely stay here again. Great price and great service. </t>
   </si>
   <si>
+    <t>Anthony H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r275836036-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -1068,6 +1266,9 @@
     <t>I only asked three questions for each of the hotels I stayed at on this trip.  Is there high speed internet? Is the pool heated, and is there a hot tub?  The wifi was horribly slow... and hard to connect to.  The pool was not heated... and the hot tub was closed down by the health department.   On the other hand, the rooms were nice, clean... and the tv was modern.  The breakfast was very good, and the owners were pleasant. ۞♀Wolf♔,’’, ^⊰❂❂⊱^ ,’’,</t>
   </si>
   <si>
+    <t>Jose G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r259855457-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -1086,12 +1287,18 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Tom F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r259835032-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
     <t>259835032</t>
   </si>
   <si>
+    <t>Albert L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r258834147-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -1101,6 +1308,9 @@
     <t>03/10/2015</t>
   </si>
   <si>
+    <t>24reneec</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r238286076-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -1119,6 +1329,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Neil M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r235738435-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -1128,6 +1341,9 @@
     <t>10/22/2014</t>
   </si>
   <si>
+    <t>Sylvia S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r226793006-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -1146,6 +1362,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Michelle A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r221172366-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -1158,6 +1377,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>jricardo_vazquez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r217871110-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -1170,6 +1392,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>N B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r216154211-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -1179,6 +1404,9 @@
     <t>07/18/2014</t>
   </si>
   <si>
+    <t>Vanessa S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r209811793-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -1191,6 +1419,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Michael P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r207691830-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -1209,6 +1440,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Elizabeth B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r200263622-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -1230,6 +1464,9 @@
     <t>I found this property around St. Patrick's weekend. I went for a visit to Disney and was going to stay w/ my son but he was sick for a week and I didn't want to catch anything. This property is one freeway exit from Disney but close enough to my son's Fullerton address. The place was clean, had all the basics, had continental breakfast, friendly staff. I asked for extra pillows and got them. There's an ice machine and vending machine. The room had a microwave and fridge. As I said, had all the basics, even a hair dryer. I'm definitely coming back. Good value and close enough to Disney, but far enough from the hussle and bussle.More</t>
   </si>
   <si>
+    <t>John R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r196922595-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -1242,6 +1479,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Nanci P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r196245458-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -1254,6 +1494,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Mary F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r193214459-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -1263,6 +1506,9 @@
     <t>02/05/2014</t>
   </si>
   <si>
+    <t>Charlie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r147162596-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -1281,6 +1527,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>Jezzyg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r127449729-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
   </si>
   <si>
@@ -1294,6 +1543,9 @@
   </si>
   <si>
     <t>alright beds crummy staff.do not ask for more tp. Bring ur own</t>
+  </si>
+  <si>
+    <t>Abby S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32416-d84711-r127151876-Travelodge_by_Wyndham_Fullerton_Near_Anaheim-Fullerton_California.html</t>
@@ -1816,43 +2068,47 @@
       <c r="A2" t="n">
         <v>5898</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -1874,50 +2130,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5898</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -1941,50 +2201,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5898</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -2008,50 +2272,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5898</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2075,50 +2343,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5898</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>74</v>
       </c>
-      <c r="L6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>70</v>
-      </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -2142,35 +2414,39 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5898</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -2178,10 +2454,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -2202,36 +2478,37 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5898</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -2239,10 +2516,10 @@
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="O8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -2263,51 +2540,52 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5898</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="O9" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2321,50 +2599,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5898</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="K10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="O10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -2388,50 +2670,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5898</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -2455,35 +2741,39 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5898</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -2491,10 +2781,10 @@
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="O12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -2515,51 +2805,52 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
-      <c r="Y12" t="s"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5898</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="O13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
@@ -2583,35 +2874,39 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5898</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="J14" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -2619,10 +2914,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -2643,51 +2938,52 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5898</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="J15" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="K15" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
@@ -2711,35 +3007,39 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5898</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>135</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="J16" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s"/>
@@ -2747,10 +3047,10 @@
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="O16" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2771,36 +3071,37 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5898</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>139</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s"/>
@@ -2808,10 +3109,10 @@
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2832,51 +3133,52 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
-      <c r="Y17" t="s"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>5898</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>144</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="J18" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="K18" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="L18" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="O18" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -2900,50 +3202,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5898</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>150</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="J19" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="K19" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="L19" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2961,50 +3267,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5898</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>156</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="J20" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="K20" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="L20" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -3028,50 +3338,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5898</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>163</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="J21" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="K21" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="L21" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="O21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3095,35 +3409,39 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>5898</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>170</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="J22" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s"/>
@@ -3131,10 +3449,10 @@
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="O22" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3155,36 +3473,37 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
-      <c r="Y22" t="s"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>5898</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>174</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="J23" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s"/>
@@ -3192,10 +3511,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="O23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -3216,51 +3535,52 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>5898</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>179</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="J24" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="K24" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="L24" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -3284,50 +3604,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>5898</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>185</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="J25" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="K25" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="L25" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="O25" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3341,48 +3665,52 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>5898</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>192</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="J26" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P26" t="n">
         <v>2</v>
@@ -3406,35 +3734,39 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>5898</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>199</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="J27" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
@@ -3442,10 +3774,10 @@
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="O27" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -3466,36 +3798,37 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>5898</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>203</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="J28" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s"/>
@@ -3503,10 +3836,10 @@
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="O28" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -3527,36 +3860,37 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
-      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>5898</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>208</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="J29" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s"/>
@@ -3564,10 +3898,10 @@
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="O29" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3588,36 +3922,37 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
-      <c r="Y29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>5898</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>213</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="J30" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="K30" t="s"/>
       <c r="L30" t="s"/>
@@ -3625,10 +3960,10 @@
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="O30" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3649,51 +3984,52 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
-      <c r="Y30" t="s"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>5898</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>217</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="J31" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="K31" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="L31" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="O31" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3713,50 +4049,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>5898</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>223</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="J32" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="K32" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="O32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3780,50 +4120,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>5898</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>230</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="J33" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="K33" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="L33" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="O33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3837,50 +4181,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>5898</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>236</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="J34" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="K34" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="L34" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="O34" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3904,35 +4252,39 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>5898</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>243</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="J35" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="K35" t="s"/>
       <c r="L35" t="s"/>
@@ -3940,10 +4292,10 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="O35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P35" t="n">
         <v>2</v>
@@ -3964,51 +4316,52 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
-      <c r="Y35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>5898</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>248</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="J36" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="K36" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="L36" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="O36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
@@ -4032,35 +4385,39 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>5898</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>254</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="J37" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s"/>
@@ -4068,10 +4425,10 @@
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="O37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -4092,51 +4449,52 @@
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
-      <c r="Y37" t="s"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>5898</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>258</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="J38" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="K38" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="L38" t="s">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="O38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -4160,35 +4518,39 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>226</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>5898</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>265</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="J39" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s"/>
@@ -4196,10 +4558,10 @@
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="O39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P39" t="n">
         <v>1</v>
@@ -4220,49 +4582,50 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
-      <c r="Y39" t="s"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>5898</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>269</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="J40" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="O40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P40" t="n">
         <v>1</v>
@@ -4286,35 +4649,39 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>5898</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>273</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="J41" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="K41" t="s"/>
       <c r="L41" t="s"/>
@@ -4322,10 +4689,10 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="O41" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -4346,51 +4713,52 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
-      <c r="Y41" t="s"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>5898</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>277</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="J42" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="K42" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="L42" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="O42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -4414,35 +4782,39 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>5898</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>282</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
       <c r="J43" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
@@ -4450,10 +4822,10 @@
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="O43" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4474,51 +4846,52 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>5898</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>286</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="J44" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="K44" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="L44" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="O44" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4542,50 +4915,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>5898</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>292</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="J45" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="K45" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="L45" t="s">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="O45" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4609,50 +4986,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>253</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>5898</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>298</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="J46" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="K46" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="L46" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="O46" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -4672,35 +5053,39 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>5898</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>304</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="J47" t="s">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="K47" t="s"/>
       <c r="L47" t="s"/>
@@ -4708,10 +5093,10 @@
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="O47" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
@@ -4732,36 +5117,37 @@
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
-      <c r="Y47" t="s"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>5898</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>309</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="J48" t="s">
-        <v>261</v>
+        <v>307</v>
       </c>
       <c r="K48" t="s"/>
       <c r="L48" t="s"/>
@@ -4769,10 +5155,10 @@
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="O48" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -4793,51 +5179,52 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
-      <c r="Y48" t="s"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>5898</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>312</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="J49" t="s">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="K49" t="s">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="L49" t="s">
-        <v>269</v>
+        <v>317</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="O49" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P49" t="n">
         <v>2</v>
@@ -4861,35 +5248,39 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>269</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>5898</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>319</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="J50" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="K50" t="s"/>
       <c r="L50" t="s"/>
@@ -4897,10 +5288,10 @@
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="O50" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -4921,36 +5312,37 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
-      <c r="Y50" t="s"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>5898</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>323</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>275</v>
+        <v>325</v>
       </c>
       <c r="J51" t="s">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s"/>
@@ -4958,10 +5350,10 @@
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="O51" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -4982,36 +5374,37 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
-      <c r="Y51" t="s"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>5898</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>328</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
       <c r="J52" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
       <c r="K52" t="s"/>
       <c r="L52" t="s"/>
@@ -5019,10 +5412,10 @@
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="O52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5035,36 +5428,37 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
-      <c r="Y52" t="s"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>5898</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>332</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>282</v>
+        <v>334</v>
       </c>
       <c r="J53" t="s">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s"/>
@@ -5072,10 +5466,10 @@
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -5096,36 +5490,37 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
-      <c r="Y53" t="s"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>5898</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>336</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="J54" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="K54" t="s"/>
       <c r="L54" t="s"/>
@@ -5133,10 +5528,10 @@
         <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="O54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P54" t="n">
         <v>2</v>
@@ -5157,51 +5552,52 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
-      <c r="Y54" t="s"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>5898</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>341</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>289</v>
+        <v>343</v>
       </c>
       <c r="J55" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="K55" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="L55" t="s">
-        <v>292</v>
+        <v>346</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="O55" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5225,50 +5621,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>292</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>5898</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>347</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>293</v>
+        <v>348</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>294</v>
+        <v>349</v>
       </c>
       <c r="J56" t="s">
-        <v>295</v>
+        <v>350</v>
       </c>
       <c r="K56" t="s">
-        <v>296</v>
+        <v>351</v>
       </c>
       <c r="L56" t="s">
-        <v>297</v>
+        <v>352</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>298</v>
+        <v>353</v>
       </c>
       <c r="O56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5292,35 +5692,39 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>297</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>5898</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>354</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>299</v>
+        <v>355</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>300</v>
+        <v>356</v>
       </c>
       <c r="J57" t="s">
-        <v>301</v>
+        <v>357</v>
       </c>
       <c r="K57" t="s"/>
       <c r="L57" t="s"/>
@@ -5328,10 +5732,10 @@
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>298</v>
+        <v>353</v>
       </c>
       <c r="O57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P57" t="n">
         <v>2</v>
@@ -5352,36 +5756,37 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
-      <c r="Y57" t="s"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>5898</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>358</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>302</v>
+        <v>359</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="J58" t="s">
-        <v>304</v>
+        <v>361</v>
       </c>
       <c r="K58" t="s"/>
       <c r="L58" t="s"/>
@@ -5389,10 +5794,10 @@
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>298</v>
+        <v>353</v>
       </c>
       <c r="O58" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5413,51 +5818,52 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
-      <c r="Y58" t="s"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>5898</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>362</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>305</v>
+        <v>363</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>306</v>
+        <v>364</v>
       </c>
       <c r="J59" t="s">
-        <v>307</v>
+        <v>365</v>
       </c>
       <c r="K59" t="s">
-        <v>308</v>
+        <v>366</v>
       </c>
       <c r="L59" t="s">
-        <v>309</v>
+        <v>367</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>310</v>
+        <v>368</v>
       </c>
       <c r="O59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -5481,50 +5887,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>309</v>
+        <v>367</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>5898</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>369</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>311</v>
+        <v>370</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>312</v>
+        <v>371</v>
       </c>
       <c r="J60" t="s">
-        <v>313</v>
+        <v>372</v>
       </c>
       <c r="K60" t="s">
-        <v>314</v>
+        <v>373</v>
       </c>
       <c r="L60" t="s">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>310</v>
+        <v>368</v>
       </c>
       <c r="O60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -5548,50 +5958,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>316</v>
+        <v>375</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>5898</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>376</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>317</v>
+        <v>377</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>318</v>
+        <v>378</v>
       </c>
       <c r="J61" t="s">
-        <v>319</v>
+        <v>379</v>
       </c>
       <c r="K61" t="s">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="L61" t="s">
-        <v>321</v>
+        <v>381</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>322</v>
+        <v>382</v>
       </c>
       <c r="O61" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -5615,50 +6029,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>323</v>
+        <v>383</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>5898</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>384</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>325</v>
+        <v>386</v>
       </c>
       <c r="J62" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
       <c r="K62" t="s">
-        <v>327</v>
+        <v>388</v>
       </c>
       <c r="L62" t="s">
-        <v>328</v>
+        <v>389</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>322</v>
+        <v>382</v>
       </c>
       <c r="O62" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -5682,35 +6100,39 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>328</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>5898</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>390</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>329</v>
+        <v>391</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>330</v>
+        <v>392</v>
       </c>
       <c r="J63" t="s">
-        <v>331</v>
+        <v>393</v>
       </c>
       <c r="K63" t="s"/>
       <c r="L63" t="s"/>
@@ -5718,10 +6140,10 @@
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>322</v>
+        <v>382</v>
       </c>
       <c r="O63" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -5742,51 +6164,52 @@
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
-      <c r="Y63" t="s"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>5898</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>394</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>332</v>
+        <v>395</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>333</v>
+        <v>396</v>
       </c>
       <c r="J64" t="s">
-        <v>331</v>
+        <v>393</v>
       </c>
       <c r="K64" t="s">
-        <v>334</v>
+        <v>397</v>
       </c>
       <c r="L64" t="s">
-        <v>335</v>
+        <v>398</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>322</v>
+        <v>382</v>
       </c>
       <c r="O64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -5810,35 +6233,39 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>335</v>
+        <v>398</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>5898</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>399</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>336</v>
+        <v>400</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>337</v>
+        <v>401</v>
       </c>
       <c r="J65" t="s">
-        <v>338</v>
+        <v>402</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s"/>
@@ -5846,10 +6273,10 @@
         <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>339</v>
+        <v>403</v>
       </c>
       <c r="O65" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P65" t="n">
         <v>2</v>
@@ -5870,51 +6297,52 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
-      <c r="Y65" t="s"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>5898</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>404</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>340</v>
+        <v>405</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>341</v>
+        <v>406</v>
       </c>
       <c r="J66" t="s">
-        <v>342</v>
+        <v>407</v>
       </c>
       <c r="K66" t="s">
-        <v>343</v>
+        <v>408</v>
       </c>
       <c r="L66" t="s">
-        <v>344</v>
+        <v>409</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>339</v>
+        <v>403</v>
       </c>
       <c r="O66" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -5928,50 +6356,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>344</v>
+        <v>409</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>5898</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>410</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="J67" t="s">
-        <v>347</v>
+        <v>413</v>
       </c>
       <c r="K67" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="L67" t="s">
-        <v>349</v>
+        <v>415</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>339</v>
+        <v>403</v>
       </c>
       <c r="O67" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -5995,50 +6427,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>349</v>
+        <v>415</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>5898</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>416</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>351</v>
+        <v>418</v>
       </c>
       <c r="J68" t="s">
-        <v>352</v>
+        <v>419</v>
       </c>
       <c r="K68" t="s">
-        <v>353</v>
+        <v>420</v>
       </c>
       <c r="L68" t="s">
-        <v>354</v>
+        <v>421</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>355</v>
+        <v>422</v>
       </c>
       <c r="O68" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -6062,35 +6498,39 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>354</v>
+        <v>421</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>5898</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>423</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>356</v>
+        <v>424</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>357</v>
+        <v>425</v>
       </c>
       <c r="J69" t="s">
-        <v>352</v>
+        <v>419</v>
       </c>
       <c r="K69" t="s"/>
       <c r="L69" t="s"/>
@@ -6098,10 +6538,10 @@
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>355</v>
+        <v>422</v>
       </c>
       <c r="O69" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -6122,36 +6562,37 @@
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
-      <c r="Y69" t="s"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>5898</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>426</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>358</v>
+        <v>427</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>359</v>
+        <v>428</v>
       </c>
       <c r="J70" t="s">
-        <v>360</v>
+        <v>429</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s"/>
@@ -6159,10 +6600,10 @@
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>355</v>
+        <v>422</v>
       </c>
       <c r="O70" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P70" t="n">
         <v>2</v>
@@ -6183,51 +6624,52 @@
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
-      <c r="Y70" t="s"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>5898</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>430</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>361</v>
+        <v>431</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>362</v>
+        <v>432</v>
       </c>
       <c r="J71" t="s">
-        <v>363</v>
+        <v>433</v>
       </c>
       <c r="K71" t="s">
-        <v>364</v>
+        <v>434</v>
       </c>
       <c r="L71" t="s">
-        <v>365</v>
+        <v>435</v>
       </c>
       <c r="M71" t="n">
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>366</v>
+        <v>436</v>
       </c>
       <c r="O71" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -6251,35 +6693,39 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>365</v>
+        <v>435</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>5898</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>437</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>367</v>
+        <v>438</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>368</v>
+        <v>439</v>
       </c>
       <c r="J72" t="s">
-        <v>369</v>
+        <v>440</v>
       </c>
       <c r="K72" t="s"/>
       <c r="L72" t="s"/>
@@ -6287,10 +6733,10 @@
         <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>366</v>
+        <v>436</v>
       </c>
       <c r="O72" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P72" t="n">
         <v>1</v>
@@ -6311,51 +6757,52 @@
       <c r="V72" t="n">
         <v>0</v>
       </c>
-      <c r="W72" t="s"/>
-      <c r="X72" t="s"/>
-      <c r="Y72" t="s"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>5898</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>441</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>370</v>
+        <v>442</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>371</v>
+        <v>443</v>
       </c>
       <c r="J73" t="s">
-        <v>372</v>
+        <v>444</v>
       </c>
       <c r="K73" t="s">
-        <v>373</v>
+        <v>445</v>
       </c>
       <c r="L73" t="s">
-        <v>374</v>
+        <v>446</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>375</v>
+        <v>447</v>
       </c>
       <c r="O73" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P73" t="n">
         <v>1</v>
@@ -6379,35 +6826,39 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>374</v>
+        <v>446</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>5898</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>448</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>376</v>
+        <v>449</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>377</v>
+        <v>450</v>
       </c>
       <c r="J74" t="s">
-        <v>378</v>
+        <v>451</v>
       </c>
       <c r="K74" t="s"/>
       <c r="L74" t="s"/>
@@ -6415,10 +6866,10 @@
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>379</v>
+        <v>452</v>
       </c>
       <c r="O74" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -6439,36 +6890,37 @@
       <c r="V74" t="n">
         <v>0</v>
       </c>
-      <c r="W74" t="s"/>
-      <c r="X74" t="s"/>
-      <c r="Y74" t="s"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>5898</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>453</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>380</v>
+        <v>454</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>381</v>
+        <v>455</v>
       </c>
       <c r="J75" t="s">
-        <v>382</v>
+        <v>456</v>
       </c>
       <c r="K75" t="s"/>
       <c r="L75" t="s"/>
@@ -6476,10 +6928,10 @@
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>383</v>
+        <v>457</v>
       </c>
       <c r="O75" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -6500,36 +6952,37 @@
       <c r="V75" t="n">
         <v>0</v>
       </c>
-      <c r="W75" t="s"/>
-      <c r="X75" t="s"/>
-      <c r="Y75" t="s"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>5898</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>458</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>384</v>
+        <v>459</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>385</v>
+        <v>460</v>
       </c>
       <c r="J76" t="s">
-        <v>386</v>
+        <v>461</v>
       </c>
       <c r="K76" t="s"/>
       <c r="L76" t="s"/>
@@ -6537,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>383</v>
+        <v>457</v>
       </c>
       <c r="O76" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -6561,36 +7014,37 @@
       <c r="V76" t="n">
         <v>0</v>
       </c>
-      <c r="W76" t="s"/>
-      <c r="X76" t="s"/>
-      <c r="Y76" t="s"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>5898</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>462</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>387</v>
+        <v>463</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>388</v>
+        <v>464</v>
       </c>
       <c r="J77" t="s">
-        <v>389</v>
+        <v>465</v>
       </c>
       <c r="K77" t="s"/>
       <c r="L77" t="s"/>
@@ -6598,10 +7052,10 @@
         <v>2</v>
       </c>
       <c r="N77" t="s">
-        <v>390</v>
+        <v>466</v>
       </c>
       <c r="O77" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="P77" t="n">
         <v>2</v>
@@ -6622,51 +7076,52 @@
       <c r="V77" t="n">
         <v>0</v>
       </c>
-      <c r="W77" t="s"/>
-      <c r="X77" t="s"/>
-      <c r="Y77" t="s"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>5898</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>467</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>391</v>
+        <v>468</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>392</v>
+        <v>469</v>
       </c>
       <c r="J78" t="s">
-        <v>393</v>
+        <v>470</v>
       </c>
       <c r="K78" t="s">
-        <v>394</v>
+        <v>471</v>
       </c>
       <c r="L78" t="s">
-        <v>395</v>
+        <v>472</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>396</v>
+        <v>473</v>
       </c>
       <c r="O78" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -6690,50 +7145,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>395</v>
+        <v>472</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>5898</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>474</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>397</v>
+        <v>475</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>398</v>
+        <v>476</v>
       </c>
       <c r="J79" t="s">
-        <v>399</v>
+        <v>477</v>
       </c>
       <c r="K79" t="s">
-        <v>400</v>
+        <v>478</v>
       </c>
       <c r="L79" t="s">
-        <v>401</v>
+        <v>479</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="O79" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -6757,35 +7216,39 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>403</v>
+        <v>481</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>5898</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>482</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>404</v>
+        <v>483</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>405</v>
+        <v>484</v>
       </c>
       <c r="J80" t="s">
-        <v>406</v>
+        <v>485</v>
       </c>
       <c r="K80" t="s"/>
       <c r="L80" t="s"/>
@@ -6793,10 +7256,10 @@
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>407</v>
+        <v>486</v>
       </c>
       <c r="O80" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -6817,36 +7280,37 @@
       <c r="V80" t="n">
         <v>0</v>
       </c>
-      <c r="W80" t="s"/>
-      <c r="X80" t="s"/>
-      <c r="Y80" t="s"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>5898</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>487</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>408</v>
+        <v>488</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>409</v>
+        <v>489</v>
       </c>
       <c r="J81" t="s">
-        <v>410</v>
+        <v>490</v>
       </c>
       <c r="K81" t="s"/>
       <c r="L81" t="s"/>
@@ -6854,10 +7318,10 @@
         <v>1</v>
       </c>
       <c r="N81" t="s">
-        <v>411</v>
+        <v>491</v>
       </c>
       <c r="O81" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P81" t="n">
         <v>1</v>
@@ -6878,36 +7342,37 @@
       <c r="V81" t="n">
         <v>0</v>
       </c>
-      <c r="W81" t="s"/>
-      <c r="X81" t="s"/>
-      <c r="Y81" t="s"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>5898</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>492</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>412</v>
+        <v>493</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>413</v>
+        <v>494</v>
       </c>
       <c r="J82" t="s">
-        <v>414</v>
+        <v>495</v>
       </c>
       <c r="K82" t="s"/>
       <c r="L82" t="s"/>
@@ -6915,10 +7380,10 @@
         <v>2</v>
       </c>
       <c r="N82" t="s">
-        <v>411</v>
+        <v>491</v>
       </c>
       <c r="O82" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P82" t="n">
         <v>1</v>
@@ -6939,51 +7404,52 @@
       <c r="V82" t="n">
         <v>0</v>
       </c>
-      <c r="W82" t="s"/>
-      <c r="X82" t="s"/>
-      <c r="Y82" t="s"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>5898</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>496</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>415</v>
+        <v>497</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>416</v>
+        <v>498</v>
       </c>
       <c r="J83" t="s">
-        <v>417</v>
+        <v>499</v>
       </c>
       <c r="K83" t="s">
-        <v>418</v>
+        <v>500</v>
       </c>
       <c r="L83" t="s">
-        <v>419</v>
+        <v>501</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>420</v>
+        <v>502</v>
       </c>
       <c r="O83" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -7007,41 +7473,45 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>419</v>
+        <v>501</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>5898</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>503</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>421</v>
+        <v>504</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>422</v>
+        <v>505</v>
       </c>
       <c r="J84" t="s">
-        <v>423</v>
+        <v>506</v>
       </c>
       <c r="K84" t="s">
-        <v>424</v>
+        <v>507</v>
       </c>
       <c r="L84" t="s">
-        <v>425</v>
+        <v>508</v>
       </c>
       <c r="M84" t="n">
         <v>2</v>
@@ -7070,50 +7540,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>425</v>
+        <v>508</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>5898</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>509</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>426</v>
+        <v>510</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>427</v>
+        <v>511</v>
       </c>
       <c r="J85" t="s">
-        <v>428</v>
+        <v>512</v>
       </c>
       <c r="K85" t="s">
-        <v>429</v>
+        <v>513</v>
       </c>
       <c r="L85" t="s">
-        <v>430</v>
+        <v>514</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>431</v>
+        <v>515</v>
       </c>
       <c r="O85" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -7137,7 +7611,7 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>430</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
